--- a/xlsx/_wiki_阿子营乡_intext.xlsx
+++ b/xlsx/_wiki_阿子营乡_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>阿子营乡</t>
   </si>
@@ -162,12 +162,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
 </sst>
 </file>
@@ -516,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,29 +1113,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_阿子营乡_intext.xlsx
+++ b/xlsx/_wiki_阿子营乡_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>阿子营乡</t>
   </si>
@@ -23,145 +23,136 @@
     <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E5%AD%90%E8%90%A5%E4%B9%A1</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>中华人民共和国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%91%E5%8D%97%E7%9C%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%91%E5%8D%97%E7%9C%81</t>
   </si>
   <si>
     <t>云南省</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%86%E6%98%8E%E5%B8%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%98%86%E6%98%8E%E5%B8%82</t>
   </si>
   <si>
     <t>昆明市</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B5%A9%E6%98%8E%E5%8E%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B5%A9%E6%98%8E%E5%8E%BF</t>
   </si>
   <si>
     <t>嵩明县</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E7%BA%A7%E8%A1%8C%E6%94%BF%E5%8C%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B9%A1%E7%BA%A7%E8%A1%8C%E6%94%BF%E5%8C%BA</t>
   </si>
   <si>
     <t>乡级行政区</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B9%A1</t>
   </si>
   <si>
     <t>乡</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92%E4%BB%A3%E7%A0%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92%E4%BB%A3%E7%A0%81</t>
   </si>
   <si>
     <t>中华人民共和国行政区划代码</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%8D%83%E7%B1%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B9%B3%E6%96%B9%E5%8D%83%E7%B1%B3</t>
   </si>
   <si>
     <t>平方千米</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7</t>
   </si>
   <si>
     <t>中华人民共和国电话区号</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
   </si>
   <si>
     <t>国际冠码</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E9%99%85%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>国际电话区号列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%B6%E5%8C%BA</t>
   </si>
   <si>
     <t>时区</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/UTC%2B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/UTC%2B8</t>
   </si>
   <si>
     <t>UTC+8</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E6%97%B6%E9%97%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8C%97%E4%BA%AC%E6%97%B6%E9%97%B4</t>
   </si>
   <si>
     <t>北京时间</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E9%81%93%E5%8A%9E%E4%BA%8B%E5%A4%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%97%E9%81%93%E5%8A%9E%E4%BA%8B%E5%A4%84</t>
   </si>
   <si>
     <t>街道办事处</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B5%A9%E9%98%B3%E8%A1%97%E9%81%93_(%E5%B5%A9%E6%98%8E%E5%8E%BF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B5%A9%E9%98%B3%E8%A1%97%E9%81%93_(%E5%B5%A9%E6%98%8E%E5%8E%BF)</t>
   </si>
   <si>
     <t>嵩阳街道 (嵩明县)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%BB%BA%E5%88%B6%E9%95%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%8C%E6%94%BF%E5%BB%BA%E5%88%B6%E9%95%87</t>
   </si>
   <si>
     <t>行政建制镇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%97%E9%95%87_(%E5%B5%A9%E6%98%8E%E5%8E%BF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%A1%97%E9%95%87_(%E5%B5%A9%E6%98%8E%E5%8E%BF)</t>
   </si>
   <si>
     <t>小街镇 (嵩明县)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E6%9E%97%E9%95%87_(%E5%B5%A9%E6%98%8E%E5%8E%BF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%A8%E6%9E%97%E9%95%87_(%E5%B5%A9%E6%98%8E%E5%8E%BF)</t>
   </si>
   <si>
     <t>杨林镇 (嵩明县)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%A0%8F%E6%B1%9F%E9%95%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%89%9B%E6%A0%8F%E6%B1%9F%E9%95%87</t>
   </si>
   <si>
     <t>牛栏江镇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%91%E5%8D%97%E7%9C%81%E4%B9%A1%E7%BA%A7%E4%BB%A5%E4%B8%8A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%91%E5%8D%97%E7%9C%81%E4%B9%A1%E7%BA%A7%E4%BB%A5%E4%B8%8A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>云南省乡级以上行政区列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%91%E5%8D%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%91%E5%8D%97</t>
   </si>
   <si>
     <t>云南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AD%90%E8%90%A5%E4%B9%A1</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -510,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,52 +1058,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_阿子营乡_intext.xlsx
+++ b/xlsx/_wiki_阿子营乡_intext.xlsx
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
